--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 8 (25, 44, 40, 41, 43)/MDD 11 (2,)/ANN_128nodes_Uniform0.05Virtual_Control(25, 44, 40, 41, 43)_MDD(2,)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 8 (25, 44, 40, 41, 43)/MDD 11 (2,)/ANN_128nodes_Uniform0.05Virtual_Control(25, 44, 40, 41, 43)_MDD(2,)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -444,10 +444,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.0003001367177930032</v>
+        <v>6.532620551785419E-08</v>
       </c>
       <c r="E2">
-        <v>0.0003001367177930032</v>
+        <v>6.532620551785419E-08</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -458,10 +458,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>7.358176838308899E-60</v>
+        <v>1.008317268527404E-46</v>
       </c>
       <c r="E3">
-        <v>7.358176838308899E-60</v>
+        <v>1.008317268527404E-46</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -472,10 +472,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>5.384165486773176E-16</v>
+        <v>3.371428394512979E-15</v>
       </c>
       <c r="E4">
-        <v>5.384165486773176E-16</v>
+        <v>3.371428394512979E-15</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -483,13 +483,13 @@
         <v>9</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0.9999292694241982</v>
+        <v>0.005647965465362825</v>
       </c>
       <c r="E5">
-        <v>0.9999292694241982</v>
+        <v>0.005647965465362825</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -500,10 +500,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9999988167941234</v>
+        <v>0.9999996253748886</v>
       </c>
       <c r="E6">
-        <v>0.9999988167941234</v>
+        <v>0.9999996253748886</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -520,10 +520,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>3.86737060546875</v>
+        <v>2.467167377471924</v>
       </c>
       <c r="G7">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
   </sheetData>
